--- a/src/test/resources/phomas_demo_new.xlsx
+++ b/src/test/resources/phomas_demo_new.xlsx
@@ -84,17 +84,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -104,9 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,7 +417,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,6 +518,8 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -505,6 +534,8 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -519,6 +550,8 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>

--- a/src/test/resources/phomas_demo_new.xlsx
+++ b/src/test/resources/phomas_demo_new.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Gender</t>
   </si>
@@ -70,6 +70,9 @@
   <si>
     <t>Women</t>
   </si>
+  <si>
+    <t>OFW23</t>
+  </si>
 </sst>
 </file>
 
@@ -84,41 +87,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -128,12 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +393,7 @@
   <dimension ref="A1:O142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,8 +494,15 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -534,8 +517,6 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -550,8 +531,6 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
